--- a/Afvinkopdracht 2/BigO bepalen.xlsx
+++ b/Afvinkopdracht 2/BigO bepalen.xlsx
@@ -180,11 +180,11 @@
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.33"/>
   </cols>
